--- a/data/trans_dic/P27E_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P27E_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia</t>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -556,7 +557,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,73; 31,67</t>
+          <t>24,65; 31,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,28; 39,86</t>
+          <t>32,95; 40,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,81; 34,7</t>
+          <t>29,65; 34,73</t>
         </is>
       </c>
     </row>
@@ -606,12 +607,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,28; 40,74</t>
+          <t>26,34; 41,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,47; 43,78</t>
+          <t>30,44; 43,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,35; 40,27</t>
+          <t>30,64; 40,3</t>
         </is>
       </c>
     </row>
@@ -716,7 +717,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>32,85%</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,22; 32,59</t>
+          <t>26,19; 32,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,28; 39,45</t>
+          <t>33,2; 39,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,56; 35,05</t>
+          <t>30,7; 35,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -753,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>504.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>64321</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>86132</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>150453</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>56555; 72722</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>78370; 95573</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>138561; 162308</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24008</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24333</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>48341</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19041; 30077</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19954; 28710</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42240; 55557</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>88329</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>110465</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>198794</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>79036; 98740</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>100736; 120250</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>185818; 212990</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P27E_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P27E_R-Urba-trans_dic.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -98,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -111,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,298 +485,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Urbano</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>28,03%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>36,21%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>32,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>24,65; 31,69</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>32,95; 40,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>29,65; 34,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>33,21%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>37,11%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>35,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>26,34; 41,61</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>30,44; 43,79</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>30,64; 40,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>29,27%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>36,4%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>32,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>26,19; 32,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>33,2; 39,63</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>30,7; 35,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -844,69 +560,51 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>191.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>313.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>504.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.2803083941693102</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3620807974149526</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3219307188168041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>64321</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>86132</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>150453</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.2464621333484343</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.3294523987205013</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.2964855391018824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>56555; 72722</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>78370; 95573</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>138561; 162308</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.3169167408846168</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.4017716974677794</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.3472972681475865</v>
       </c>
     </row>
     <row r="7">
@@ -917,69 +615,51 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>156.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.3321056022453545</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3711410430411375</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3506707128981685</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>24008</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>24333</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>48341</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.2634010133884951</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.3043605761346468</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.3064141448723668</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>19041; 30077</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>19954; 28710</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>42240; 55557</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.4160634310643278</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4379064786756825</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4030166072075798</v>
       </c>
     </row>
     <row r="10">
@@ -990,70 +670,34 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1063,69 +707,51 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>261.0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>399.0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>660.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.292717159819491</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3640383575853264</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3284771043210154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>88329</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>110465</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>198794</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.2619208937117951</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3319761746163342</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.3070362348597865</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>79036; 98740</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>100736; 120250</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>185818; 212990</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.3272185426404861</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3962856884002049</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3519340502411473</v>
       </c>
     </row>
     <row r="16">
@@ -1145,4 +771,366 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>191</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>313</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>64321</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>86132</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>150453</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>56555</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>78370</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>138561</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>72722</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>95573</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>162308</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>24008</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>24333</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>48341</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>19041</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>19954</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>42240</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>30077</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>28710</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>55557</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
+      <c r="E13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>261</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>399</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>88329</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>110465</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>198794</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>79036</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>100736</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>185818</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>98740</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>120250</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>212990</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P27E_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P27E_R-Urba-trans_dic.xlsx
@@ -40,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -53,6 +53,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -485,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -501,12 +529,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -515,33 +549,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -551,6 +621,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -564,13 +640,31 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
+        <v>0.249108653910505</v>
+      </c>
+      <c r="D4" s="5" t="n">
         <v>0.2803083941693102</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
+        <v>0.2955627869563482</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3580990139177603</v>
+      </c>
+      <c r="G4" s="5" t="n">
         <v>0.3620807974149526</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="H4" s="5" t="n">
+        <v>0.3646123590159256</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.305968698172711</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>0.3219307188168041</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.3307271237360029</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
+        <v>0.2099159513187058</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <v>0.2464621333484343</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
+        <v>0.2588496293439819</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.3162129359149994</v>
+      </c>
+      <c r="G5" s="5" t="n">
         <v>0.3294523987205013</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0.3334783609664875</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.2772252633445584</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>0.2964855391018824</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.3074109985676228</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
+        <v>0.2889626101911649</v>
+      </c>
+      <c r="D6" s="5" t="n">
         <v>0.3169167408846168</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
+        <v>0.3298451051777596</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.402758583445003</v>
+      </c>
+      <c r="G6" s="5" t="n">
         <v>0.4017716974677794</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="H6" s="5" t="n">
+        <v>0.3965729129841947</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3369016401734715</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>0.3472972681475865</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.3576409760686025</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +749,31 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
+        <v>0.2819712452860541</v>
+      </c>
+      <c r="D7" s="5" t="n">
         <v>0.3321056022453545</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
+        <v>0.3274417599443882</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.3621513525016303</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <v>0.3711410430411375</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="H7" s="5" t="n">
+        <v>0.4000513779438332</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3223378740073062</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>0.3506707128981685</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.3621969869940135</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
+        <v>0.2372299103825006</v>
+      </c>
+      <c r="D8" s="5" t="n">
         <v>0.2634010133884951</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
+        <v>0.2679630912614633</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.3189207013371016</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <v>0.3043605761346468</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="H8" s="5" t="n">
+        <v>0.3270156311408832</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.2934402534175062</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>0.3064141448723668</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.312148456635075</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
+        <v>0.331937763895179</v>
+      </c>
+      <c r="D9" s="5" t="n">
         <v>0.4160634310643278</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
+        <v>0.4028924491456041</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.4061454003628013</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>0.4379064786756825</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="H9" s="5" t="n">
+        <v>0.4706190071102736</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.3563909401055255</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>0.4030166072075798</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.4102370273529489</v>
       </c>
     </row>
     <row r="10">
@@ -673,9 +857,21 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.2250177929627398</v>
+      </c>
       <c r="D10" s="5" t="inlineStr"/>
       <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="n">
+        <v>0.2860470166729758</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="n">
+        <v>0.2551332369071588</v>
+      </c>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -684,9 +880,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>0.1373854256837851</v>
+      </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="n">
+        <v>0.2023502781413783</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="n">
+        <v>0.1958629300319236</v>
+      </c>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -695,9 +903,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.3204207048178076</v>
+      </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>0.3797026269937736</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="n">
+        <v>0.3185766073268561</v>
+      </c>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -711,13 +931,31 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
+        <v>0.2592676630430277</v>
+      </c>
+      <c r="D13" s="5" t="n">
         <v>0.292717159819491</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
+        <v>0.3032973104924368</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3514069179672609</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <v>0.3640383575853264</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="H13" s="5" t="n">
+        <v>0.3724383905663546</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.3063664490696495</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>0.3284771043210154</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.3380180262521758</v>
       </c>
     </row>
     <row r="14">
@@ -728,13 +966,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
+        <v>0.229859382852096</v>
+      </c>
+      <c r="D14" s="5" t="n">
         <v>0.2619208937117951</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
+        <v>0.2732419155414612</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3247283036986052</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>0.3319761746163342</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="H14" s="5" t="n">
+        <v>0.3436393575990213</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2859718891037237</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>0.3070362348597865</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.3182932570484642</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +1001,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
+        <v>0.2919574876371578</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <v>0.3272185426404861</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
+        <v>0.3373443284175274</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.3801208142313399</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>0.3962856884002049</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="H15" s="5" t="n">
+        <v>0.4023112076884892</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.3281929870337926</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>0.3519340502411473</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.3621586597752715</v>
       </c>
     </row>
     <row r="16">
@@ -762,10 +1036,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
@@ -779,7 +1056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -795,12 +1072,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -809,33 +1092,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -845,6 +1164,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -858,13 +1183,31 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="D4" s="6" t="n">
         <v>191</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="E4" s="6" t="n">
+        <v>201</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>225</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>313</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="H4" s="6" t="n">
+        <v>324</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>362</v>
+      </c>
+      <c r="J4" s="6" t="n">
         <v>504</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>525</v>
       </c>
     </row>
     <row r="5">
@@ -875,13 +1218,31 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
+        <v>408700</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>64321</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="E5" s="6" t="n">
+        <v>66996</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>640820</v>
+      </c>
+      <c r="G5" s="6" t="n">
         <v>86132</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="H5" s="6" t="n">
+        <v>85767</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>1049520</v>
+      </c>
+      <c r="J5" s="6" t="n">
         <v>150453</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>152762</v>
       </c>
     </row>
     <row r="6">
@@ -892,13 +1253,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
+        <v>344399</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>56555</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="E6" s="6" t="n">
+        <v>58674</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>565865</v>
+      </c>
+      <c r="G6" s="6" t="n">
         <v>78370</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="H6" s="6" t="n">
+        <v>78443</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>950926</v>
+      </c>
+      <c r="J6" s="6" t="n">
         <v>138561</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>141993</v>
       </c>
     </row>
     <row r="7">
@@ -909,13 +1288,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
+        <v>474087</v>
+      </c>
+      <c r="D7" s="6" t="n">
         <v>72722</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="E7" s="6" t="n">
+        <v>74766</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>720738</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>95573</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="H7" s="6" t="n">
+        <v>93285</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1155625</v>
+      </c>
+      <c r="J7" s="6" t="n">
         <v>162308</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>165194</v>
       </c>
     </row>
     <row r="8">
@@ -930,13 +1327,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="D8" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="E8" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>199</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="H8" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>316</v>
+      </c>
+      <c r="J8" s="6" t="n">
         <v>156</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="9">
@@ -947,13 +1362,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
+        <v>386857</v>
+      </c>
+      <c r="D9" s="6" t="n">
         <v>24008</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="E9" s="6" t="n">
+        <v>23777</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>503765</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>24333</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="H9" s="6" t="n">
+        <v>26671</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>890622</v>
+      </c>
+      <c r="J9" s="6" t="n">
         <v>48341</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>50447</v>
       </c>
     </row>
     <row r="10">
@@ -964,13 +1397,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
+        <v>325473</v>
+      </c>
+      <c r="D10" s="6" t="n">
         <v>19041</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="E10" s="6" t="n">
+        <v>19458</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>443630</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>19954</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="H10" s="6" t="n">
+        <v>21801</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>810778</v>
+      </c>
+      <c r="J10" s="6" t="n">
         <v>42240</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>43476</v>
       </c>
     </row>
     <row r="11">
@@ -981,13 +1432,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
+        <v>455410</v>
+      </c>
+      <c r="D11" s="6" t="n">
         <v>30077</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="E11" s="6" t="n">
+        <v>29255</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>564962</v>
+      </c>
+      <c r="G11" s="6" t="n">
         <v>28710</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="H11" s="6" t="n">
+        <v>31375</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>984711</v>
+      </c>
+      <c r="J11" s="6" t="n">
         <v>55557</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>57138</v>
       </c>
     </row>
     <row r="12">
@@ -1002,12 +1471,30 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,9 +1505,21 @@
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr"/>
+      <c r="C13" s="6" t="n">
+        <v>95141</v>
+      </c>
       <c r="D13" s="6" t="inlineStr"/>
       <c r="E13" s="6" t="inlineStr"/>
+      <c r="F13" s="6" t="n">
+        <v>117821</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>212962</v>
+      </c>
+      <c r="J13" s="6" t="inlineStr"/>
+      <c r="K13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -1029,9 +1528,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
+      <c r="C14" s="6" t="n">
+        <v>58088</v>
+      </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
+      <c r="F14" s="6" t="n">
+        <v>83347</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>163489</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
+      <c r="K14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -1040,9 +1551,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
+      <c r="C15" s="6" t="n">
+        <v>135478</v>
+      </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
+      <c r="F15" s="6" t="n">
+        <v>156398</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>265919</v>
+      </c>
+      <c r="J15" s="6" t="inlineStr"/>
+      <c r="K15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1056,13 +1579,31 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
+        <v>278</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>261</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="E16" s="6" t="n">
+        <v>282</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>456</v>
+      </c>
+      <c r="G16" s="6" t="n">
         <v>399</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="H16" s="6" t="n">
+        <v>414</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>734</v>
+      </c>
+      <c r="J16" s="6" t="n">
         <v>660</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>696</v>
       </c>
     </row>
     <row r="17">
@@ -1073,13 +1614,31 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
+        <v>890698</v>
+      </c>
+      <c r="D17" s="6" t="n">
         <v>88329</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="E17" s="6" t="n">
+        <v>90772</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>1262406</v>
+      </c>
+      <c r="G17" s="6" t="n">
         <v>110465</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="H17" s="6" t="n">
+        <v>112437</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>2153104</v>
+      </c>
+      <c r="J17" s="6" t="n">
         <v>198794</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>203209</v>
       </c>
     </row>
     <row r="18">
@@ -1090,13 +1649,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
+        <v>789667</v>
+      </c>
+      <c r="D18" s="6" t="n">
         <v>79036</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="E18" s="6" t="n">
+        <v>81777</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1166565</v>
+      </c>
+      <c r="G18" s="6" t="n">
         <v>100736</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="H18" s="6" t="n">
+        <v>103743</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>2009774</v>
+      </c>
+      <c r="J18" s="6" t="n">
         <v>185818</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>191351</v>
       </c>
     </row>
     <row r="19">
@@ -1107,13 +1684,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
+        <v>1003002</v>
+      </c>
+      <c r="D19" s="6" t="n">
         <v>98740</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="E19" s="6" t="n">
+        <v>100962</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>1365559</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>120250</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="H19" s="6" t="n">
+        <v>121456</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>2306498</v>
+      </c>
+      <c r="J19" s="6" t="n">
         <v>212990</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>217722</v>
       </c>
     </row>
     <row r="20">
@@ -1124,10 +1719,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
